--- a/actual_sales_list.xlsx
+++ b/actual_sales_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9a17a5c7f06a16f/Desktop/Python Projects/PublixSalemap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9a17a5c7f06a16f/Desktop/Python Projects/Publix-Salesmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{680C5B4C-EBBF-4969-B558-C80D2BF3E33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BAA2394A-233D-4D07-A515-DC07A922B8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{95A56121-545C-4FA1-B981-610BE7D39E54}"/>
+    <workbookView xWindow="2205" yWindow="2790" windowWidth="21600" windowHeight="11055" xr2:uid="{BBF82CAF-0056-46C7-9889-005CA66987C8}"/>
   </bookViews>
   <sheets>
     <sheet name="grocery" sheetId="1" r:id="rId1"/>
@@ -20,588 +20,528 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="183">
   <si>
     <t>Product Name</t>
   </si>
   <si>
-    <t>Starbucks Ground Coffee</t>
-  </si>
-  <si>
-    <t>Hellmann's Mayonnaise</t>
-  </si>
-  <si>
-    <t>Prego Sauce</t>
-  </si>
-  <si>
-    <t>General Mills Cheerios Cereal</t>
+    <t>Kraft Mayo Mayonnaise</t>
+  </si>
+  <si>
+    <t>Ken's Steak House Dressing, Topping &amp; Spread</t>
+  </si>
+  <si>
+    <t>Zoup! Bone Broth</t>
+  </si>
+  <si>
+    <t>Mueller's Pasta</t>
+  </si>
+  <si>
+    <t>GÃ«valia K-Cup Coffee</t>
+  </si>
+  <si>
+    <t>Bear &amp; Burton's Sauce</t>
+  </si>
+  <si>
+    <t>Bertolli Sauce</t>
+  </si>
+  <si>
+    <t>Campbell's Cream Soup</t>
+  </si>
+  <si>
+    <t>Progresso Soup</t>
+  </si>
+  <si>
+    <t>Splenda Zero Calorie Sweetener</t>
+  </si>
+  <si>
+    <t>King Arthur All-Purpose Flour</t>
   </si>
   <si>
     <t>Del Monte Vegetables</t>
   </si>
   <si>
-    <t>Swanson Broth</t>
-  </si>
-  <si>
-    <t>Mt. Olive Pickles</t>
-  </si>
-  <si>
-    <t>Campbell's Cream Soup</t>
-  </si>
-  <si>
-    <t>Dunkin' K-Cup Coffee</t>
-  </si>
-  <si>
     <t>Duncan Hines Cake Mix</t>
   </si>
   <si>
-    <t>Ocean Spray Juice Cocktail</t>
-  </si>
-  <si>
-    <t>Carnation Evaporated Milk</t>
-  </si>
-  <si>
-    <t>Libby's 100% Pure Pumpkin</t>
-  </si>
-  <si>
-    <t>Gold Medal Flour</t>
-  </si>
-  <si>
-    <t>Fisher Chef's Naturals Baking Nuts</t>
+    <t>8-Pack Coca-Cola Soft Drink Products</t>
+  </si>
+  <si>
+    <t>12-Pack Coca-Cola Products</t>
+  </si>
+  <si>
+    <t>Dasani Water</t>
+  </si>
+  <si>
+    <t>Polar Seltzer Water</t>
+  </si>
+  <si>
+    <t>Keebler Cookies</t>
+  </si>
+  <si>
+    <t>Planters Peanuts</t>
+  </si>
+  <si>
+    <t>12-Pack Pepsi Products</t>
+  </si>
+  <si>
+    <t>Kellogg's Town House Crackers</t>
+  </si>
+  <si>
+    <t>Del Monte Olives</t>
+  </si>
+  <si>
+    <t>Quaker Instant Oatmeal</t>
+  </si>
+  <si>
+    <t>Back to Nature Nuts</t>
+  </si>
+  <si>
+    <t>M&amp;M's Chocolate Candies</t>
+  </si>
+  <si>
+    <t>6-Pack 7UP Products</t>
+  </si>
+  <si>
+    <t>Kellogg's Frosted Flakes Cereal</t>
+  </si>
+  <si>
+    <t>Welch's Fruit Snacks</t>
+  </si>
+  <si>
+    <t>Cabot Popcorn</t>
+  </si>
+  <si>
+    <t>Donut Shop K-Cup Coffee</t>
+  </si>
+  <si>
+    <t>Nature's Own Honey Wheat Bread</t>
+  </si>
+  <si>
+    <t>Russell Stover Chocolates</t>
+  </si>
+  <si>
+    <t>Crunch Creamy Milk Chocolate</t>
+  </si>
+  <si>
+    <t>Chef Boyardee Pasta</t>
+  </si>
+  <si>
+    <t>12-Pack 7UP Products</t>
+  </si>
+  <si>
+    <t>Annie's Macaroni &amp; Cheese</t>
+  </si>
+  <si>
+    <t>Barnie's Coffee Ground 12-oz or Single-Serve 10-ct.</t>
+  </si>
+  <si>
+    <t>Betty Crocker Potatoes</t>
+  </si>
+  <si>
+    <t>Botticelli Premium Pasta Sauce</t>
+  </si>
+  <si>
+    <t>C4 Performance Energy Drink</t>
+  </si>
+  <si>
+    <t>Catalina Crunch Snack Mix</t>
+  </si>
+  <si>
+    <t>Celsius Energy Drink</t>
+  </si>
+  <si>
+    <t>Cheez-It Baked Snack Crackers</t>
+  </si>
+  <si>
+    <t>Chex Mix Snack</t>
+  </si>
+  <si>
+    <t>Clearly Canadian Original or Zero</t>
+  </si>
+  <si>
+    <t>Coca-Cola Products</t>
   </si>
   <si>
     <t>6-Pack Coca-Cola Soft Drink Products</t>
   </si>
   <si>
-    <t>12-Pack Coca-Cola Products</t>
-  </si>
-  <si>
-    <t>Orville Redenbacher's Gourmet Popcorn</t>
-  </si>
-  <si>
-    <t>Lacroix Sparkling Water</t>
-  </si>
-  <si>
-    <t>Zephyrhills Natural Spring Water</t>
-  </si>
-  <si>
-    <t>Nabisco Ritz Crackers</t>
-  </si>
-  <si>
-    <t>12-Pack Pepsi Products</t>
+    <t>Community Coffee</t>
+  </si>
+  <si>
+    <t>Del Monte Fruit</t>
+  </si>
+  <si>
+    <t>Diamond of California Pine Nuts, Almonds, Walnuts, or Macadamia Nuts or Pecans</t>
+  </si>
+  <si>
+    <t>Duncan Hines Frosting</t>
+  </si>
+  <si>
+    <t>Dunkin' Coffee</t>
+  </si>
+  <si>
+    <t>Enjoy Life Morsels</t>
+  </si>
+  <si>
+    <t>Eternal Spring Water</t>
+  </si>
+  <si>
+    <t>General Mills Cereal: Cheerios or Chex</t>
+  </si>
+  <si>
+    <t>Ghirardelli Chocolate Premium Baking Chips</t>
+  </si>
+  <si>
+    <t>Hamburger Helper Pasta</t>
+  </si>
+  <si>
+    <t>Jell-O Instant Pudding &amp; Pie Filling</t>
+  </si>
+  <si>
+    <t>Kellogg's Pop-Tarts Toaster Pastries</t>
+  </si>
+  <si>
+    <t>Lipton Tea</t>
+  </si>
+  <si>
+    <t>Mama Francesca Grated Cheese</t>
+  </si>
+  <si>
+    <t>Maxwell House Ground Coffee</t>
+  </si>
+  <si>
+    <t>Mott's Apple Juice</t>
+  </si>
+  <si>
+    <t>Olive Garden Seasoned Croutons, Garlic &amp; Romano</t>
+  </si>
+  <si>
+    <t>Chef Woo Ramen</t>
+  </si>
+  <si>
+    <t>Pace Chunky Salsa</t>
+  </si>
+  <si>
+    <t>Pompeian Imported Olive Oil</t>
+  </si>
+  <si>
+    <t>Post Honey Bunches of Oats Cereal</t>
   </si>
   <si>
     <t>Pringles Potato Crisps</t>
   </si>
   <si>
-    <t>Blue Diamond Almonds</t>
-  </si>
-  <si>
-    <t>Nature Valley Bars</t>
-  </si>
-  <si>
-    <t>Duncan Hines Comstock Pie Filling &amp; Topping</t>
-  </si>
-  <si>
-    <t>6-Pack 7UP Products</t>
-  </si>
-  <si>
-    <t>Seattle's Best Coffee</t>
-  </si>
-  <si>
-    <t>Starbucks Iced Coffee</t>
-  </si>
-  <si>
-    <t>Botticelli Premium Pasta Sauce</t>
-  </si>
-  <si>
-    <t>Reese Prepared Horseradish</t>
-  </si>
-  <si>
-    <t>Jet-Puffed Mini Marshmallows</t>
-  </si>
-  <si>
-    <t>Allens Italian Green Beans</t>
-  </si>
-  <si>
-    <t>Arizona Tea</t>
-  </si>
-  <si>
-    <t>Bertolli Olive Oil</t>
-  </si>
-  <si>
-    <t>Better Than Bouillon Base</t>
-  </si>
-  <si>
-    <t>Celsius</t>
-  </si>
-  <si>
-    <t>Coca-Cola Products</t>
-  </si>
-  <si>
-    <t>Community Coffee Breakfast Blend Recyclable K-Cup Pods</t>
-  </si>
-  <si>
-    <t>Crisco Oil</t>
-  </si>
-  <si>
-    <t>Crunch N Munch or Poppycock Popcorn</t>
-  </si>
-  <si>
-    <t>Del Monte Whole or Quartered Artichoke Hearts</t>
-  </si>
-  <si>
-    <t>Domino Sugar: Premium, Pure Cane, Granulated</t>
-  </si>
-  <si>
-    <t>Duke's Mayonnaise</t>
-  </si>
-  <si>
-    <t>Duncan Hines Frosting</t>
-  </si>
-  <si>
-    <t>Entenmann's Products</t>
-  </si>
-  <si>
-    <t>GlacÃ©au Vitaminwater</t>
-  </si>
-  <si>
-    <t>Green Giant Specialty Corn</t>
-  </si>
-  <si>
-    <t>Heinz Tomato Ketchup</t>
-  </si>
-  <si>
-    <t>Imagine Soup or Broth</t>
-  </si>
-  <si>
-    <t>Ken's Steak House Dressing</t>
-  </si>
-  <si>
-    <t>Kind Bars or Granola</t>
-  </si>
-  <si>
-    <t>Knorr Sauces or Soup Mixes</t>
-  </si>
-  <si>
-    <t>Kraft Stove Top Stuffing Mix</t>
-  </si>
-  <si>
-    <t>Lindsay Ripe Pitted Olives: California or Black</t>
-  </si>
-  <si>
-    <t>Lipton Recipe Secrets</t>
-  </si>
-  <si>
-    <t>Maxwell House Ground Coffee</t>
-  </si>
-  <si>
-    <t>Nature's Own Butterbread</t>
-  </si>
-  <si>
-    <t>NestlÃ© Toll House Cookie Dough</t>
-  </si>
-  <si>
-    <t>New England Coffee</t>
-  </si>
-  <si>
-    <t>Newman's Own Dressing</t>
-  </si>
-  <si>
-    <t>Ocean Spray Cranberry Sauce</t>
-  </si>
-  <si>
-    <t>PAM Cooking Spray</t>
-  </si>
-  <si>
-    <t>6-Pack Pepsi Products</t>
-  </si>
-  <si>
-    <t>Peter Pan Peanut Butter</t>
-  </si>
-  <si>
-    <t>Pompeian Imported Olive Oil</t>
-  </si>
-  <si>
-    <t>Post Honey Bunches of Oats Cereal</t>
-  </si>
-  <si>
-    <t>Post Great Grains Cereal</t>
-  </si>
-  <si>
-    <t>GreenWise Granola</t>
-  </si>
-  <si>
-    <t>Pure Life Purified Water</t>
-  </si>
-  <si>
-    <t>Rao's Homemade Pasta</t>
-  </si>
-  <si>
-    <t>Rao's Homemade Sauce</t>
-  </si>
-  <si>
-    <t>Russell Stover Chocolates</t>
-  </si>
-  <si>
-    <t>Sara Lee Butter Bread</t>
-  </si>
-  <si>
-    <t>Saratoga Still or Sparkling Water</t>
-  </si>
-  <si>
-    <t>Sun-Maid Natural California Raisins</t>
-  </si>
-  <si>
-    <t>Tabasco Hot Sauce</t>
-  </si>
-  <si>
-    <t>Twinings of London Tea Bags</t>
-  </si>
-  <si>
-    <t>Velveeta</t>
-  </si>
-  <si>
-    <t>Vlasic Pickles</t>
-  </si>
-  <si>
-    <t>Voortman Wafers</t>
-  </si>
-  <si>
-    <t>Welch's Sparkling Juice Cocktail</t>
-  </si>
-  <si>
-    <t>Wish-Bone Dressing</t>
-  </si>
-  <si>
-    <t>Chinet Classic White Plates</t>
-  </si>
-  <si>
-    <t>Bounty Paper Towels</t>
-  </si>
-  <si>
-    <t>Finish Automatic Dishwasher Detergent</t>
+    <t>Progresso Bread Crumbs or Panko Bread Crumbs</t>
+  </si>
+  <si>
+    <t>Propel Water Beverage</t>
+  </si>
+  <si>
+    <t>Publix French Fried Onions</t>
+  </si>
+  <si>
+    <t>Pure Wesson Oil</t>
+  </si>
+  <si>
+    <t>Seeds of Change Rice</t>
+  </si>
+  <si>
+    <t>Snyder's of Hanover Pretzel Pieces</t>
+  </si>
+  <si>
+    <t>Sweet Baby Ray's Gourmet Sauces or Hot Wing Sauce or Hot Sauce</t>
+  </si>
+  <si>
+    <t>Swiss Miss Hot Cocoa Mix</t>
+  </si>
+  <si>
+    <t>Tazo Black Tea</t>
+  </si>
+  <si>
+    <t>Thomas' English Muffins</t>
+  </si>
+  <si>
+    <t>Wonder Classic White Bread</t>
+  </si>
+  <si>
+    <t>Poppi Prebiotic Soda</t>
+  </si>
+  <si>
+    <t>Scripto Aim 'n Flame Multi-Purpose Lighter</t>
+  </si>
+  <si>
+    <t>Hefty Party Cups</t>
+  </si>
+  <si>
+    <t>Tide or Tide Pods Laundry Detergent</t>
+  </si>
+  <si>
+    <t>Purex Laundry Detergent</t>
+  </si>
+  <si>
+    <t>Brawny Paper Towels</t>
+  </si>
+  <si>
+    <t>Charmin Bathroom Tissue</t>
+  </si>
+  <si>
+    <t>Cascade Dishwasher Detergent</t>
   </si>
   <si>
     <t>Arm &amp; Hammer Laundry Detergent</t>
   </si>
   <si>
-    <t>Charmin Bathroom Tissue</t>
-  </si>
-  <si>
-    <t>Angel Soft Bath Tissue Mega Roll</t>
-  </si>
-  <si>
-    <t>Brawny Paper Towels Triple Rolls</t>
-  </si>
-  <si>
-    <t>Brillo Sno Bol Toilet Bowl Cleaner</t>
-  </si>
-  <si>
-    <t>Dixie Plates 10 1/16" Plates</t>
+    <t>Angel Soft Bathroom Tissue</t>
+  </si>
+  <si>
+    <t>Carbona Stain Devils Stain Remover or Color Grabber</t>
+  </si>
+  <si>
+    <t>Dawn Powerwash Dish Spray or Refill</t>
   </si>
   <si>
     <t>Dixie Plates or Bowls</t>
   </si>
   <si>
-    <t>Glad Flex'N Seal Zipper Bags</t>
-  </si>
-  <si>
-    <t>White Cloud Bathroom Tissue</t>
-  </si>
-  <si>
-    <t>Oxiclean Mold &amp; Mildew Bathroom Stain Remover</t>
-  </si>
-  <si>
-    <t>Palmolive Ultra Dish Liquid</t>
-  </si>
-  <si>
-    <t>Reynolds Wrap Aluminum Foil</t>
-  </si>
-  <si>
-    <t>Sparkle Paper Towels Double Rolls</t>
-  </si>
-  <si>
-    <t>Vanity Fair Napkins</t>
-  </si>
-  <si>
-    <t>Marie Callender's Pie</t>
+    <t>Hefty Slider Bags</t>
+  </si>
+  <si>
+    <t>Lysol Cleaner</t>
+  </si>
+  <si>
+    <t>Pine-Sol Multi-Surface Cleaner</t>
+  </si>
+  <si>
+    <t>Windex Cleaner</t>
+  </si>
+  <si>
+    <t>Aisle</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>6-Pack Blue Point Beer</t>
+  </si>
+  <si>
+    <t>Buck Shack Red Blend Wine</t>
+  </si>
+  <si>
+    <t>California Traditions Cabernet Sauvignon Wine</t>
+  </si>
+  <si>
+    <t>Charles Krug Wine</t>
+  </si>
+  <si>
+    <t>12-Pack Dunkin' Spiked Iced Tea</t>
+  </si>
+  <si>
+    <t>Francis Coppola Diamond Collection Wine</t>
+  </si>
+  <si>
+    <t>Hawk Crest Cabernet Sauvignon Wine</t>
+  </si>
+  <si>
+    <t>12-Pack Heineken Silver Beer</t>
+  </si>
+  <si>
+    <t>Jacks Peak Cabernet Sauvignon Wine</t>
+  </si>
+  <si>
+    <t>Josh Cellars Cabernet Sauvignon Wine</t>
+  </si>
+  <si>
+    <t>La Marca Prosecco Wine</t>
+  </si>
+  <si>
+    <t>24-Pack Michelob Ultra Beer</t>
+  </si>
+  <si>
+    <t>12-Pack Modelo Especial or Corona Extra Beer</t>
+  </si>
+  <si>
+    <t>12-Pack New Belgium Beer</t>
+  </si>
+  <si>
+    <t>Navigator Napa Cabernet Sauvignon Wine</t>
+  </si>
+  <si>
+    <t>Maison de Madeleine Brut Wine</t>
+  </si>
+  <si>
+    <t>Rodney Strong Cabernet Sauvignon Wine</t>
+  </si>
+  <si>
+    <t>Sonoma-Cutrer Sonoma Coast Chardonnay Wine</t>
+  </si>
+  <si>
+    <t>Sunscape Pinot Grigio Wine</t>
+  </si>
+  <si>
+    <t>Veuve Clicquot Brut Champagne</t>
+  </si>
+  <si>
+    <t>Talenti Gelato</t>
   </si>
   <si>
     <t>Birds Eye Vegetables</t>
   </si>
   <si>
-    <t>Breyers Ice Cream</t>
-  </si>
-  <si>
-    <t>Michael Angelo's Family Size EntrÃ©es</t>
-  </si>
-  <si>
-    <t>Pillsbury Crescents</t>
-  </si>
-  <si>
-    <t>Pillsbury Pie Crusts</t>
-  </si>
-  <si>
-    <t>Blue Bell Ice Cream</t>
-  </si>
-  <si>
-    <t>Pearl Milling Company Pancake &amp; Waffle Mix</t>
-  </si>
-  <si>
-    <t>Ben &amp; Jerry's Ice Cream, Frozen Yogurt, or Non-Dairy Frozen Dessert</t>
-  </si>
-  <si>
-    <t>Blue Bell Ice Cream Cups</t>
-  </si>
-  <si>
-    <t>Caulipower Cauliflower Crust Pizza</t>
-  </si>
-  <si>
-    <t>French's Crispy Fried Onions</t>
-  </si>
-  <si>
-    <t>Green Giant Frozen Vegetables</t>
-  </si>
-  <si>
-    <t>Idahoan Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Kraft Velveeta Shells &amp; Cheese Dinner</t>
-  </si>
-  <si>
-    <t>Michael Angelo's EntrÃ©e</t>
-  </si>
-  <si>
-    <t>NestlÃ© Drumstick Sundae Cone</t>
-  </si>
-  <si>
-    <t>Ore-Ida Potatoes</t>
-  </si>
-  <si>
-    <t>P.F. Chang's Home Menu EntrÃ©es</t>
+    <t>Newman's Own Pizza</t>
+  </si>
+  <si>
+    <t>Celentano Pasta</t>
+  </si>
+  <si>
+    <t>Oh! Tatoes Fully Baked Idaho Potatoes</t>
+  </si>
+  <si>
+    <t>GreenWise Puff Pastry Sheets</t>
+  </si>
+  <si>
+    <t>Birds Eye Voila! Family Size Skillet Meals</t>
+  </si>
+  <si>
+    <t>Gardein Plant Based EntrÃ©e</t>
+  </si>
+  <si>
+    <t>Innovasian Cuisine EntrÃ©e Kit</t>
+  </si>
+  <si>
+    <t>Jones Dairy Farm Golden Brown Sausage Patties</t>
+  </si>
+  <si>
+    <t>Lactaid Ice Cream</t>
+  </si>
+  <si>
+    <t>Morningstar Farms Veggie EntrÃ©es</t>
+  </si>
+  <si>
+    <t>Pepperidge Farm Bread or Texas Toast</t>
+  </si>
+  <si>
+    <t>Publix Premium Ice Cream</t>
+  </si>
+  <si>
+    <t>Red's Breakfast Sandwich</t>
+  </si>
+  <si>
+    <t>Saffron Road Entrees</t>
+  </si>
+  <si>
+    <t>Sublime Desserts Mousse</t>
+  </si>
+  <si>
+    <t>Yasso Frozen Greek Yogurt Bars or Ice Cream Sandwich</t>
+  </si>
+  <si>
+    <t>Fage Greek Strained Yogurt</t>
   </si>
   <si>
     <t>Pillsbury Grands! Biscuits</t>
   </si>
   <si>
-    <t>Savannah Classics Sides</t>
-  </si>
-  <si>
-    <t>Sister Schubert's Yeast Dinner Rolls</t>
-  </si>
-  <si>
-    <t>12-Pack Arnold Palmer Spiked Tea</t>
-  </si>
-  <si>
-    <t>Barefoot Bubbly Wine</t>
-  </si>
-  <si>
-    <t>Barefoot Pinot Grigio Wine</t>
-  </si>
-  <si>
-    <t>6-Pack Blue Moon Beer</t>
-  </si>
-  <si>
-    <t>Bonanza California Cabernet Sauvignon Wine</t>
-  </si>
-  <si>
-    <t>Casa Farive Prosecco Superiore DOCG Wine</t>
-  </si>
-  <si>
-    <t>Chateau Ste. Michelle Indian Wells Wine</t>
-  </si>
-  <si>
-    <t>Cigar City Beer</t>
-  </si>
-  <si>
-    <t>12-Pack Corona Extra Beer</t>
-  </si>
-  <si>
-    <t>Decoy Cabernet Sauvignon Wine</t>
-  </si>
-  <si>
-    <t>Francis Coppola Diamond Collection Wine</t>
-  </si>
-  <si>
-    <t>6-Pack Heineken Lager</t>
-  </si>
-  <si>
-    <t>12-Pack Heineken Lager</t>
-  </si>
-  <si>
-    <t>Holland House Cooking Wine</t>
-  </si>
-  <si>
-    <t>Josh Cellars Cabernet Sauvignon Wine</t>
-  </si>
-  <si>
-    <t>Kendall-Jackson Chardonnay Wine</t>
-  </si>
-  <si>
-    <t>La Crema Monterey Pinot Noir Wine</t>
-  </si>
-  <si>
-    <t>12-Pack Michelob Ultra Pure Gold Light Lager</t>
-  </si>
-  <si>
-    <t>24-Pack Michelob Ultra Beer</t>
-  </si>
-  <si>
-    <t>24-Pack Miller Lite Beer</t>
-  </si>
-  <si>
-    <t>12-Pack New Belgium Beer</t>
-  </si>
-  <si>
-    <t>Raeburn Chardonnay Wine</t>
-  </si>
-  <si>
-    <t>Cloud Watcher Sauvignon Blanc Wine</t>
-  </si>
-  <si>
-    <t>12-Pack Lone River Ranch Water Hard Seltzer, Variety Pack</t>
-  </si>
-  <si>
-    <t>6-Pack 1300 Mile Brewing Beer</t>
-  </si>
-  <si>
-    <t>Oyster Bay Sauvignon Blanc Wine</t>
-  </si>
-  <si>
-    <t>12-Pack Peroni Nastro Azzurro Beer</t>
-  </si>
-  <si>
-    <t>12-Pack Samuel Adams Beer</t>
-  </si>
-  <si>
-    <t>Sonoma-Cutrer Sonoma Coast Chardonnay Wine</t>
-  </si>
-  <si>
-    <t>12-Pack Stella Artois Premium Lager</t>
-  </si>
-  <si>
-    <t>12-Pack Twisted Tea Hard Iced Tea</t>
-  </si>
-  <si>
-    <t>Veuve Clicquot Brut Champagne</t>
-  </si>
-  <si>
-    <t>12-Pack White Claw Hard Seltzer</t>
-  </si>
-  <si>
-    <t>Chobani Greek Yogurt</t>
+    <t>Daisy Cottage Cheese</t>
   </si>
   <si>
     <t>NestlÃ© Coffee Mate Coffee Creamer</t>
   </si>
   <si>
-    <t>Publix Egg Nog</t>
-  </si>
-  <si>
-    <t>Reddi Wip Dairy Whipped Topping</t>
-  </si>
-  <si>
-    <t>Chobani Oatmilk</t>
-  </si>
-  <si>
-    <t>Chobani Flip or Creations Greek Yogurt</t>
-  </si>
-  <si>
-    <t>Daisy Sour Cream</t>
-  </si>
-  <si>
-    <t>Fairlife Ultra-Filtered Milk</t>
-  </si>
-  <si>
-    <t>I Can't Believe It's Not Butter! Spread</t>
-  </si>
-  <si>
-    <t>Kerrygold Irish Butter</t>
-  </si>
-  <si>
-    <t>Kraft Philadelphia Cream Cheese</t>
-  </si>
-  <si>
-    <t>Land O Lakes Butter</t>
-  </si>
-  <si>
-    <t>Land O Lakes Half and Half</t>
-  </si>
-  <si>
-    <t>Miyoko's Creamery Plant Milk Butter</t>
-  </si>
-  <si>
-    <t>Aisle</t>
-  </si>
-  <si>
-    <t>Secondary</t>
-  </si>
-  <si>
-    <t>Flora Products</t>
+    <t>Silk Almond Almondmilk</t>
+  </si>
+  <si>
+    <t>A2 Milk</t>
+  </si>
+  <si>
+    <t>CafÃ© Bustelo Coffee</t>
+  </si>
+  <si>
+    <t>Country Crock Spread, Original</t>
+  </si>
+  <si>
+    <t>Dannon Light + Fit or Oikos Triple Zero Greek Yogurt</t>
+  </si>
+  <si>
+    <t>Kerrygold Imported Pure Irish Butter</t>
+  </si>
+  <si>
+    <t>Kozy Shack Pudding</t>
+  </si>
+  <si>
+    <t>Kraft Philadelphia Cream Cheese Spread</t>
+  </si>
+  <si>
+    <t>Planet Oat Oatmilk 52-oz or Planet Oat Creamer 32-oz</t>
+  </si>
+  <si>
+    <t>Silk Almond or Oat Creamer</t>
+  </si>
+  <si>
+    <t>A13BE</t>
+  </si>
+  <si>
+    <t>Pedigree Pouch</t>
+  </si>
+  <si>
+    <t>Temptations Cat Treats</t>
+  </si>
+  <si>
+    <t>A1BE</t>
   </si>
   <si>
     <t>A1FE</t>
   </si>
   <si>
-    <t>Pearl Milling Company Syrup</t>
-  </si>
-  <si>
     <t>A2FE</t>
   </si>
   <si>
-    <t>A3FE</t>
-  </si>
-  <si>
     <t>A4FE</t>
   </si>
   <si>
     <t>A5FE</t>
   </si>
   <si>
-    <t>A22D-2</t>
-  </si>
-  <si>
-    <t>A32D-1</t>
+    <t>A16BE</t>
+  </si>
+  <si>
+    <t>Dump</t>
+  </si>
+  <si>
+    <t>Lobby</t>
+  </si>
+  <si>
+    <t>Dump/ A6FE</t>
+  </si>
+  <si>
+    <t>Clump &amp; Seal</t>
+  </si>
+  <si>
+    <t>A72D-1</t>
+  </si>
+  <si>
+    <t>3Door</t>
   </si>
   <si>
     <t>A52D-1</t>
   </si>
   <si>
-    <t>A62D-1</t>
-  </si>
-  <si>
-    <t>A42D-2</t>
-  </si>
-  <si>
-    <t>A52D-2</t>
-  </si>
-  <si>
-    <t>Heinz Gravy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poppycock </t>
-  </si>
-  <si>
-    <t>A6FE</t>
-  </si>
-  <si>
-    <t>Blue Buffalo Nudges Dog Treats</t>
-  </si>
-  <si>
-    <t>A72D-1</t>
-  </si>
-  <si>
-    <t>Blue Buffalo Health Bars</t>
-  </si>
-  <si>
-    <t>Puff Pastry Sheets</t>
-  </si>
-  <si>
-    <t>3Door</t>
-  </si>
-  <si>
-    <t>Pillsbury Deep Dish Pie</t>
+    <t>A6BE</t>
+  </si>
+  <si>
+    <t>A7BE</t>
+  </si>
+  <si>
+    <t>A9BE</t>
+  </si>
+  <si>
+    <t>A9BE / A9FE</t>
+  </si>
+  <si>
+    <t>A3BE</t>
+  </si>
+  <si>
+    <t>A122D</t>
   </si>
   <si>
     <t>A12FE</t>
@@ -613,61 +553,19 @@
     <t>A14FE</t>
   </si>
   <si>
-    <t>Arm &amp; Hammer Paks</t>
-  </si>
-  <si>
-    <t>A132D-1</t>
+    <t>A16FE</t>
+  </si>
+  <si>
+    <t>Meat Table</t>
+  </si>
+  <si>
+    <t>A5BE</t>
+  </si>
+  <si>
+    <t>A132D-2</t>
   </si>
   <si>
     <t>A142D-1</t>
-  </si>
-  <si>
-    <t>Affresh Dishwasher Cleaner</t>
-  </si>
-  <si>
-    <t>A122D</t>
-  </si>
-  <si>
-    <t>Bounty Napkins</t>
-  </si>
-  <si>
-    <t>A1BE</t>
-  </si>
-  <si>
-    <t>A3BE</t>
-  </si>
-  <si>
-    <t>Tampico</t>
-  </si>
-  <si>
-    <t>A4BE</t>
-  </si>
-  <si>
-    <t>A5BE</t>
-  </si>
-  <si>
-    <t>A6BE</t>
-  </si>
-  <si>
-    <t>A9BE</t>
-  </si>
-  <si>
-    <t>A14BE</t>
-  </si>
-  <si>
-    <t>A16BE</t>
-  </si>
-  <si>
-    <t>Rubbermaid Containers</t>
-  </si>
-  <si>
-    <t>Lobby</t>
-  </si>
-  <si>
-    <t>Handi-foil Pan Trays</t>
-  </si>
-  <si>
-    <t>Meat Table</t>
   </si>
   <si>
     <t>x</t>
@@ -1154,8 +1052,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,18 +1434,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156857A2-9BBC-40C3-998B-AB9745D9D2C0}">
-  <dimension ref="A1:C243"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFF9229F-E8F5-4578-95E8-C0B89BD96822}">
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,2022 +1453,1687 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>98</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>204</v>
+      <c r="C2" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>216</v>
+      <c r="C5" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>173</v>
+      <c r="C6" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>216</v>
+      <c r="C7" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>179</v>
+      <c r="C8" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>203</v>
+      <c r="C9" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>216</v>
+      <c r="C10" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>216</v>
+      <c r="C11" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>204</v>
+      <c r="C12" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>175</v>
+      <c r="C13" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>203</v>
+      <c r="C14" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>203</v>
+      <c r="C15" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>216</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>173</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>216</v>
+        <v>3</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>173</v>
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>180</v>
+      <c r="C21" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>180</v>
+      <c r="C22" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>211</v>
+      <c r="C23" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B24" s="1">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>216</v>
+      <c r="C24" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>216</v>
+      <c r="C25" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>216</v>
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>216</v>
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>216</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>216</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>216</v>
+        <v>5</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B33" s="1">
         <v>5</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>216</v>
+      <c r="C33" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B34" s="1">
         <v>5</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>216</v>
+      <c r="C34" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1">
         <v>5</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>216</v>
+      <c r="C35" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>181</v>
+      <c r="C36" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1">
         <v>5</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>216</v>
+      <c r="C37" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>181</v>
+      <c r="C38" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1">
         <v>5</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>216</v>
+      <c r="C39" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1">
         <v>5</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>216</v>
+      <c r="C40" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B41" s="1">
         <v>5</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>216</v>
+      <c r="C41" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1">
         <v>5</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>216</v>
+      <c r="C42" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B43" s="1">
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>216</v>
+      <c r="C43" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B44" s="1">
         <v>5</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>216</v>
+      <c r="C44" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1">
         <v>5</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>216</v>
+      <c r="C45" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1">
-        <v>5</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>184</v>
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B49" s="1">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B50" s="1">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B51" s="1">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B53" s="1">
-        <v>5</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B54" s="1">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="B55" s="1">
-        <v>6</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1">
-        <v>6</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>213</v>
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1">
-        <v>6</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>216</v>
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1">
-        <v>6</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1">
-        <v>6</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1">
-        <v>6</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>178</v>
+        <v>8</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1">
-        <v>6</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="B62" s="1">
-        <v>6</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>8</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B63" s="1">
-        <v>6</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>182</v>
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B64" s="1">
-        <v>6</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B65" s="1">
-        <v>6</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="B66" s="1">
-        <v>6</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1">
-        <v>6</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>216</v>
+        <v>8</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1">
-        <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="B69" s="1">
-        <v>7</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>189</v>
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B70" s="1">
         <v>8</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>206</v>
+      <c r="C70" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1">
         <v>8</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>207</v>
+      <c r="C71" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>8</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>213</v>
+      <c r="C72" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1">
         <v>8</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>216</v>
+      <c r="C73" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B74" s="1">
-        <v>8</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>208</v>
+        <v>9</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B75" s="1">
-        <v>8</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>206</v>
+        <v>9</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B76" s="1">
-        <v>8</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>216</v>
+        <v>9</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B77" s="1">
-        <v>8</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>178</v>
+        <v>9</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1">
-        <v>8</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>207</v>
+        <v>9</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>177</v>
+        <v>9</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1">
-        <v>8</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>216</v>
+        <v>9</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B81" s="1">
-        <v>8</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>209</v>
+        <v>10</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="B82" s="1">
-        <v>8</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>209</v>
+        <v>10</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>124</v>
       </c>
       <c r="B83" s="1">
-        <v>9</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>187</v>
+        <v>10</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="B84" s="1">
-        <v>9</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>216</v>
+        <v>10</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="B85" s="1">
-        <v>9</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>210</v>
+        <v>10</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="B86" s="1">
-        <v>9</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>177</v>
+        <v>10</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="B87" s="1">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>216</v>
+        <v>10</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B88" s="1">
         <v>10</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>192</v>
+      <c r="C88" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B89" s="1">
         <v>10</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>216</v>
+      <c r="C89" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1">
-        <v>10</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>216</v>
+        <v>11</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B91" s="1">
-        <v>10</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>216</v>
+        <v>11</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B92" s="1">
-        <v>10</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>216</v>
+        <v>11</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B93" s="1">
-        <v>10</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>216</v>
+        <v>11</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B94" s="1">
-        <v>10</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>216</v>
+        <v>11</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="B95" s="1">
         <v>11</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>192</v>
+      <c r="C95" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B96" s="1">
         <v>11</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>216</v>
+      <c r="C96" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="B97" s="1">
         <v>11</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>192</v>
+      <c r="C97" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B98" s="1">
         <v>11</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>216</v>
+      <c r="C98" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c r="B99" s="1">
-        <v>11</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>192</v>
+        <v>12</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B100" s="1">
-        <v>11</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B102" s="1">
-        <v>11</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B103" s="1">
-        <v>11</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B104" s="1">
-        <v>11</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B105" s="1">
-        <v>11</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>192</v>
+        <v>12</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1">
         <v>12</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>216</v>
+      <c r="C106" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B107" s="1">
         <v>12</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>216</v>
+      <c r="C107" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B108" s="1">
         <v>12</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>216</v>
+      <c r="C108" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1">
         <v>12</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>216</v>
+      <c r="C109" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B110" s="1">
         <v>12</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>216</v>
+      <c r="C110" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B111" s="1">
         <v>12</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>201</v>
+      <c r="C111" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B112" s="1">
         <v>12</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>201</v>
+      <c r="C112" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B113" s="1">
         <v>12</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>216</v>
+      <c r="C113" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B114" s="1">
         <v>12</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>216</v>
+      <c r="C114" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B115" s="1">
         <v>12</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>216</v>
+      <c r="C115" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B116" s="1">
         <v>12</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>216</v>
+      <c r="C116" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B117" s="1">
         <v>12</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>216</v>
+      <c r="C117" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B118" s="1">
         <v>12</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>216</v>
+      <c r="C118" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="B119" s="1">
-        <v>12</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="B120" s="1">
-        <v>12</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="B121" s="1">
-        <v>12</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="B122" s="1">
-        <v>12</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="B123" s="1">
-        <v>12</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="B124" s="1">
-        <v>12</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="B125" s="1">
-        <v>12</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="B126" s="1">
-        <v>12</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>216</v>
+        <v>13</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B127" s="1">
-        <v>12</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>201</v>
+        <v>13</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B128" s="1">
-        <v>12</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="B129" s="1">
-        <v>12</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="B130" s="1">
-        <v>12</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="B131" s="1">
-        <v>12</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="B132" s="1">
-        <v>12</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="B133" s="1">
-        <v>12</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="B134" s="1">
-        <v>12</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>216</v>
+        <v>14</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="B135" s="1">
-        <v>12</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>216</v>
+        <v>16</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="B136" s="1">
-        <v>12</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>216</v>
+        <v>16</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>79</v>
       </c>
       <c r="B137" s="1">
-        <v>12</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>216</v>
+        <v>16</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="B138" s="1">
-        <v>12</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>194</v>
+        <v>16</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="B139" s="1">
-        <v>13</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>198</v>
+        <v>17</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
-        <v>13</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>195</v>
+        <v>17</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B141" s="1">
-        <v>13</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>195</v>
+        <v>17</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="B142" s="1">
-        <v>13</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>198</v>
+        <v>17</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="B143" s="1">
-        <v>13</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>216</v>
+        <v>17</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>13</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>216</v>
+        <v>17</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B145" s="1">
-        <v>13</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>216</v>
+        <v>17</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="B146" s="1">
-        <v>14</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>195</v>
+        <v>17</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="B147" s="1">
-        <v>14</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>196</v>
+        <v>17</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>14</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>215</v>
+        <v>17</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="B149" s="1">
-        <v>14</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>216</v>
+        <v>17</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="B150" s="1">
-        <v>14</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>216</v>
+        <v>17</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1">
-        <v>14</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>195</v>
+        <v>17</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="B152" s="1">
-        <v>14</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>216</v>
+        <v>17</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="B153" s="1">
-        <v>14</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>94</v>
-      </c>
-      <c r="B154" s="1">
-        <v>14</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>95</v>
-      </c>
-      <c r="B155" s="1">
-        <v>14</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>98</v>
-      </c>
-      <c r="B156" s="1">
-        <v>14</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>99</v>
-      </c>
-      <c r="B157" s="1">
-        <v>14</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>100</v>
-      </c>
-      <c r="B158" s="1">
-        <v>14</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>46</v>
-      </c>
-      <c r="B159" s="1">
-        <v>16</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>58</v>
-      </c>
-      <c r="B160" s="1">
-        <v>16</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>65</v>
-      </c>
-      <c r="B161" s="1">
-        <v>16</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>74</v>
-      </c>
-      <c r="B162" s="1">
-        <v>16</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>76</v>
-      </c>
-      <c r="B163" s="1">
-        <v>16</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>29</v>
-      </c>
-      <c r="B164" s="1">
         <v>17</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>59</v>
-      </c>
-      <c r="B165" s="1">
-        <v>17</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>79</v>
-      </c>
-      <c r="B166" s="1">
-        <v>17</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>105</v>
-      </c>
-      <c r="B167" s="1">
-        <v>17</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>106</v>
-      </c>
-      <c r="B168" s="1">
-        <v>17</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>115</v>
-      </c>
-      <c r="B169" s="1">
-        <v>17</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>156</v>
-      </c>
-      <c r="B170" s="1">
-        <v>17</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>157</v>
-      </c>
-      <c r="B171" s="1">
-        <v>17</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>158</v>
-      </c>
-      <c r="B172" s="1">
-        <v>17</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>159</v>
-      </c>
-      <c r="B173" s="1">
-        <v>17</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>160</v>
-      </c>
-      <c r="B174" s="1">
-        <v>17</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>161</v>
-      </c>
-      <c r="B175" s="1">
-        <v>17</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>162</v>
-      </c>
-      <c r="B176" s="1">
-        <v>17</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>163</v>
-      </c>
-      <c r="B177" s="1">
-        <v>17</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>164</v>
-      </c>
-      <c r="B178" s="1">
-        <v>17</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>165</v>
-      </c>
-      <c r="B179" s="1">
-        <v>17</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>166</v>
-      </c>
-      <c r="B180" s="1">
-        <v>17</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>167</v>
-      </c>
-      <c r="B181" s="1">
-        <v>17</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>168</v>
-      </c>
-      <c r="B182" s="1">
-        <v>17</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>169</v>
-      </c>
-      <c r="B183" s="1">
-        <v>17</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>92</v>
+      <c r="C153" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
-    <sortCondition ref="B53:B262"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C153">
+    <sortCondition ref="B49:B153"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
